--- a/testData/StudyProfile.xlsx
+++ b/testData/StudyProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\git\EIDSA_IntegrationTest\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\eclipse-workspace\EndToEnd_EIDSA\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BEEAB2-FB33-41AB-8CB9-76BBA7EEA274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1341F-910C-4839-A41A-14BEDB347820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>StudyId</t>
   </si>
@@ -65,10 +65,19 @@
     <t>Neethumol P S</t>
   </si>
   <si>
-    <t>IDS01</t>
-  </si>
-  <si>
     <t>05-06-2024</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>IDS04</t>
   </si>
 </sst>
 </file>
@@ -395,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,10 +423,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9831F0-F903-4C30-B062-F2EA2ACE6FF5}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,6 +459,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -458,10 +472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FBF8A7-C341-4A37-9F84-AAD86A2BA435}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +508,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -508,9 +522,37 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
